--- a/biology/Botanique/Polyscias_guilfoylei/Polyscias_guilfoylei.xlsx
+++ b/biology/Botanique/Polyscias_guilfoylei/Polyscias_guilfoylei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polyscias guilfoylei est une espèce de plantes de la famille des Araliaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (29 octobre 2017)[4] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (29 octobre 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Polyscias guilfoylei var. laciniata (Williams ex hort.) L.H. Bailey
 variété Polyscias guilfoylei var. monstrosa (hort. ex Truff.) L.H. Bailey
 variété Polyscias guilfoylei var. victoriae (W. Bull ex hort.) L.H. Bailey</t>
